--- a/data/ts_maringa.xlsx
+++ b/data/ts_maringa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="308">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -97,6 +97,42 @@
     <t xml:space="preserve">total_neo_covid</t>
   </si>
   <si>
+    <t xml:space="preserve">09/7/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[21,23,25,28,29,32,33,34,41,41,42,42,44,44,45,47,48,50,52,55,58,59,62,63,73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[13,16,19,23,30,36,37,41,42,43,44,47,63,65,69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/7/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[17,30,31,31,31,33,34,35,38,42,47,47,48,48,52,52,55,58,58,69,71]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,17,18,20,21,25,29,32,32,38,40,42,42,45,45,48,49,49,50,53,53,53,54,55,55,58,58,60,63,65,65,69,74,76,84,85,87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1,1,2,6,7,9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/7/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,16,17,20,22,26,27,28,29,31,34,34,35,36,37,38,39,40,41,41,46,47,48,49,50,51,52,55,55,56,57,57,59,61,66,71,71]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26,28,28,29,31,32,32,34,36,37,38,38,39,39,40,40,41,41,42,42,45,57,59,61,62,63,65,70,73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[8]</t>
+  </si>
+  <si>
     <t xml:space="preserve">06/7/2020</t>
   </si>
   <si>
@@ -307,9 +343,6 @@
     <t xml:space="preserve">[25,26,26,26,30,31,34,34,35,38,43,47,48,50,50,51,51,52,54,54,59,60,61,63,64,73,75]</t>
   </si>
   <si>
-    <t xml:space="preserve">[8]</t>
-  </si>
-  <si>
     <t xml:space="preserve">18/6/2020</t>
   </si>
   <si>
@@ -614,9 +647,6 @@
   </si>
   <si>
     <t xml:space="preserve">[54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1]</t>
   </si>
   <si>
     <t xml:space="preserve">20/5/2020</t>
@@ -1051,12 +1081,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1066,17 +1096,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.03"/>
@@ -1090,8 +1120,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1175,110 +1204,109 @@
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>3658</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>1290</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>9596</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="B2" s="0" t="n">
+        <v>2084</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="D2" s="0" t="n">
+        <v>3982</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1481</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10345</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>45.54</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="P2" s="4" t="n">
+      <c r="N2" s="0" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>44.07</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>26.67</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
+      <c r="Q2" s="0" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
         <v>1434</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1848</v>
+        <v>2043</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>3534</v>
+        <v>3909</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>1247</v>
+        <v>1450</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>9388</v>
+        <v>10132</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>30</v>
@@ -1290,19 +1318,19 @@
         <v>32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>41.42</v>
+        <v>55.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>62.77</v>
+        <v>67.97</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>49.15</v>
+        <v>47.46</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>27.62</v>
+        <v>23.81</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>40</v>
+        <v>43.64</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -1331,31 +1359,31 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1757</v>
+        <v>1979</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3767</v>
+        <v>3648</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1225</v>
+        <v>1348</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>9100</v>
+        <v>9951</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>34</v>
@@ -1367,19 +1395,19 @@
         <v>36</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>49.02</v>
+        <v>51.53</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>61.47</v>
+        <v>69.7</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>57.63</v>
+        <v>50.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>26.67</v>
+        <v>28.57</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>47.27</v>
+        <v>43.64</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
@@ -1402,34 +1430,35 @@
       <c r="Y4" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1674</v>
+        <v>1912</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3638</v>
+        <v>3658</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1186</v>
+        <v>1290</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>9054</v>
+        <v>9596</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>3</v>
@@ -1444,19 +1473,19 @@
         <v>40</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>48.12</v>
+        <v>45.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>62.77</v>
+        <v>64.94</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>61.2</v>
+        <v>44.07</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>29.52</v>
+        <v>26.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>47.27</v>
+        <v>40</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
@@ -1485,31 +1514,31 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1617</v>
+        <v>1848</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3644</v>
+        <v>3534</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1153</v>
+        <v>1247</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8791</v>
+        <v>9388</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>42</v>
@@ -1521,19 +1550,19 @@
         <v>44</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>48.4</v>
+        <v>41.42</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>62.8</v>
+        <v>62.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>55.9</v>
+        <v>49.15</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>28.6</v>
+        <v>27.62</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>49.1</v>
+        <v>40</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>0</v>
@@ -1562,31 +1591,31 @@
         <v>45</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1559</v>
+        <v>1757</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>18</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3592</v>
+        <v>3767</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1091</v>
+        <v>1225</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8594</v>
+        <v>9100</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>46</v>
@@ -1598,19 +1627,19 @@
         <v>48</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>49.4</v>
+        <v>49.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>64.7</v>
+        <v>61.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>57.6</v>
+        <v>57.63</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>22.9</v>
+        <v>26.67</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>64.4</v>
+        <v>47.27</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>0</v>
@@ -1619,7 +1648,7 @@
         <v>1434</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V7" s="5" t="n">
         <v>59</v>
@@ -1628,7 +1657,7 @@
         <v>105</v>
       </c>
       <c r="X7" s="5" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="5" t="n">
         <v>9</v>
@@ -1639,31 +1668,31 @@
         <v>49</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1520</v>
+        <v>1674</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3541</v>
+        <v>3638</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1031</v>
+        <v>1186</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>8343</v>
+        <v>9054</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>50</v>
@@ -1675,19 +1704,19 @@
         <v>52</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>47.4</v>
+        <v>48.12</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>69.7</v>
+        <v>62.77</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>47.5</v>
+        <v>61.2</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>22.9</v>
+        <v>29.52</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>57.8</v>
+        <v>47.27</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>0</v>
@@ -1696,7 +1725,7 @@
         <v>1434</v>
       </c>
       <c r="U8" s="5" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V8" s="5" t="n">
         <v>59</v>
@@ -1705,7 +1734,7 @@
         <v>105</v>
       </c>
       <c r="X8" s="5" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="5" t="n">
         <v>9</v>
@@ -1716,31 +1745,31 @@
         <v>53</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1493</v>
+        <v>1617</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3329</v>
+        <v>3644</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>988</v>
+        <v>1153</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8182</v>
+        <v>8791</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>54</v>
@@ -1752,39 +1781,39 @@
         <v>56</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>42</v>
+        <v>48.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>55.2</v>
+        <v>62.8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="S9" s="6" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="S9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>1434</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V9" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="W9" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="X9" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="6" t="n">
+      <c r="X9" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y9" s="5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1793,31 +1822,31 @@
         <v>57</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1447</v>
+        <v>1559</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3321</v>
+        <v>3592</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>893</v>
+        <v>1091</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7931</v>
+        <v>8594</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>58</v>
@@ -1829,21 +1858,21 @@
         <v>60</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>39.9</v>
+        <v>49.4</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>59.7</v>
+        <v>64.7</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="Q10" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="R10" s="6" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="S10" s="6" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="S10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="4" t="n">
@@ -1855,13 +1884,13 @@
       <c r="V10" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="W10" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="X10" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="Y10" s="6" t="n">
+      <c r="Y10" s="5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1870,31 +1899,31 @@
         <v>61</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1422</v>
+        <v>1520</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3211</v>
+        <v>3541</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>890</v>
+        <v>1031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7866</v>
+        <v>8343</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>62</v>
@@ -1903,24 +1932,24 @@
         <v>63</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>48.6</v>
+        <v>47.4</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>63.3</v>
+        <v>69.7</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="Q11" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="R11" s="6" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="S11" s="6" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="S11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="4" t="n">
@@ -1935,67 +1964,67 @@
       <c r="W11" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1359</v>
+        <v>1493</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2917</v>
+        <v>3329</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>869</v>
+        <v>988</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7839</v>
+        <v>8182</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>50.6</v>
+        <v>42</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>66.5</v>
+        <v>55.2</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>49.2</v>
+        <v>52.5</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>14.3</v>
+        <v>24.8</v>
       </c>
       <c r="R12" s="6" t="n">
-        <v>37.8</v>
+        <v>48.9</v>
       </c>
       <c r="S12" s="6" t="n">
         <v>0</v>
@@ -2009,70 +2038,70 @@
       <c r="V12" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1322</v>
+        <v>1447</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2486</v>
+        <v>3321</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>808</v>
+        <v>893</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>7684</v>
+        <v>7931</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>50</v>
+        <v>39.9</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>64.3</v>
+        <v>59.7</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>55.9</v>
+        <v>47.5</v>
       </c>
       <c r="Q13" s="6" t="n">
-        <v>17.1</v>
+        <v>21</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>40</v>
+        <v>48.9</v>
       </c>
       <c r="S13" s="6" t="n">
         <v>0</v>
@@ -2086,67 +2115,67 @@
       <c r="V13" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1278</v>
+        <v>1422</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2145</v>
+        <v>3211</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>788</v>
+        <v>890</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7487</v>
+        <v>7866</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>47.3</v>
+        <v>48.6</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>66.5</v>
+        <v>63.3</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>50.8</v>
+        <v>54.2</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>17.1</v>
+        <v>20</v>
       </c>
       <c r="R14" s="6" t="n">
         <v>37.8</v>
@@ -2178,31 +2207,31 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>1219</v>
+        <v>1359</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1993</v>
+        <v>2917</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>729</v>
+        <v>869</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7285</v>
+        <v>7839</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>77</v>
@@ -2214,16 +2243,16 @@
         <v>79</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>47.4</v>
+        <v>50.6</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>62.4</v>
+        <v>66.5</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>52.5</v>
+        <v>49.2</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>18.1</v>
+        <v>14.3</v>
       </c>
       <c r="R15" s="6" t="n">
         <v>37.8</v>
@@ -2255,31 +2284,31 @@
         <v>80</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1154</v>
+        <v>1322</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1755</v>
+        <v>2486</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>677</v>
+        <v>808</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>7137</v>
+        <v>7684</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>24</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>81</v>
@@ -2291,19 +2320,19 @@
         <v>83</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>41.7</v>
+        <v>50</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>62.9</v>
+        <v>64.3</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>54.2</v>
+        <v>55.9</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>18.1</v>
+        <v>17.1</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>26.7</v>
+        <v>40</v>
       </c>
       <c r="S16" s="6" t="n">
         <v>0</v>
@@ -2332,31 +2361,31 @@
         <v>84</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1113</v>
+        <v>1278</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1617</v>
+        <v>2145</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>629</v>
+        <v>788</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>7043</v>
+        <v>7487</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>85</v>
@@ -2368,19 +2397,19 @@
         <v>87</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>38.2</v>
+        <v>47.3</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>66.1</v>
+        <v>66.5</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>55.9</v>
+        <v>50.8</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <v>13.33</v>
+        <v>17.1</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>35.6</v>
+        <v>37.8</v>
       </c>
       <c r="S17" s="6" t="n">
         <v>0</v>
@@ -2408,67 +2437,67 @@
       <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>1079</v>
-      </c>
-      <c r="C18" s="6" t="n">
+      <c r="B18" s="4" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <v>1647</v>
+      <c r="D18" s="5" t="n">
+        <v>1993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>616</v>
+        <v>729</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6927</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" s="6" t="s">
+        <v>7285</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="6" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>55.9</v>
+      <c r="N18" s="4" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>52.5</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <v>15.24</v>
+        <v>18.1</v>
       </c>
       <c r="R18" s="6" t="n">
         <v>37.8</v>
       </c>
       <c r="S18" s="6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="T18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4" t="n">
         <v>1434</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="U18" s="5" t="n">
         <v>221</v>
       </c>
-      <c r="V18" s="6" t="n">
+      <c r="V18" s="5" t="n">
         <v>59</v>
       </c>
       <c r="W18" s="4" t="n">
@@ -2485,67 +2514,67 @@
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>1485</v>
+      <c r="B19" s="4" t="n">
+        <v>1154</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1755</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6779</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6" t="s">
+        <v>7137</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="6" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>72.4</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>61</v>
+      <c r="N19" s="4" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>54.2</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <v>19</v>
+        <v>18.1</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>35.6</v>
+        <v>26.7</v>
       </c>
       <c r="S19" s="6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="T19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4" t="n">
         <v>1434</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="U19" s="5" t="n">
         <v>221</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="V19" s="5" t="n">
         <v>59</v>
       </c>
       <c r="W19" s="4" t="n">
@@ -2562,67 +2591,67 @@
       <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>967</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>1374</v>
+      <c r="B20" s="4" t="n">
+        <v>1113</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1617</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>6573</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+        <v>7043</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="P20" s="6" t="n">
+      <c r="M20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="O20" s="4" t="n">
         <v>66.1</v>
       </c>
+      <c r="P20" s="4" t="n">
+        <v>55.9</v>
+      </c>
       <c r="Q20" s="6" t="n">
-        <v>15.2</v>
+        <v>13.33</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>42.2</v>
+        <v>35.6</v>
       </c>
       <c r="S20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="4" t="n">
         <v>1434</v>
       </c>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="5" t="n">
         <v>221</v>
       </c>
-      <c r="V20" s="6" t="n">
+      <c r="V20" s="5" t="n">
         <v>59</v>
       </c>
       <c r="W20" s="4" t="n">
@@ -2636,70 +2665,70 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>99</v>
+      <c r="A21" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>922</v>
+        <v>1079</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1164</v>
+        <v>1647</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6383</v>
+        <v>6927</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>50.9</v>
+        <v>49.2</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>68.8</v>
+        <v>73.8</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>67.8</v>
+        <v>55.9</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <v>17.1</v>
+        <v>15.24</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>44.4</v>
+        <v>37.8</v>
       </c>
       <c r="S21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="T21" s="6" t="n">
         <v>1434</v>
       </c>
-      <c r="U21" s="4" t="n">
+      <c r="U21" s="6" t="n">
         <v>221</v>
       </c>
-      <c r="V21" s="4" t="n">
+      <c r="V21" s="6" t="n">
         <v>59</v>
       </c>
       <c r="W21" s="4" t="n">
@@ -2713,70 +2742,70 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>103</v>
+      <c r="A22" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>895</v>
+        <v>1028</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>935</v>
+        <v>1485</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>454</v>
+        <v>604</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6283</v>
+        <v>6779</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>61.5</v>
+        <v>72.4</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>67.8</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R22" s="6" t="n">
-        <v>33.3</v>
+        <v>35.6</v>
       </c>
       <c r="S22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="T22" s="6" t="n">
         <v>1434</v>
       </c>
-      <c r="U22" s="4" t="n">
+      <c r="U22" s="6" t="n">
         <v>221</v>
       </c>
-      <c r="V22" s="4" t="n">
+      <c r="V22" s="6" t="n">
         <v>59</v>
       </c>
       <c r="W22" s="4" t="n">
@@ -2790,70 +2819,70 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>106</v>
+      <c r="A23" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>850</v>
+        <v>967</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>747</v>
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>1374</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>433</v>
+        <v>588</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6135</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="4" t="s">
+        <v>6573</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="L23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="O23" s="4" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="P23" s="4" t="n">
-        <v>57.6</v>
+      <c r="M23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>66.1</v>
       </c>
       <c r="Q23" s="6" t="n">
-        <v>20</v>
+        <v>15.2</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>28.9</v>
+        <v>42.2</v>
       </c>
       <c r="S23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T23" s="4" t="n">
+      <c r="T23" s="6" t="n">
         <v>1434</v>
       </c>
-      <c r="U23" s="4" t="n">
+      <c r="U23" s="6" t="n">
         <v>221</v>
       </c>
-      <c r="V23" s="4" t="n">
+      <c r="V23" s="6" t="n">
         <v>59</v>
       </c>
       <c r="W23" s="4" t="n">
@@ -2871,55 +2900,55 @@
         <v>110</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>791</v>
+        <v>922</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>781</v>
+      <c r="D24" s="6" t="n">
+        <v>1164</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>400</v>
+        <v>564</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>5978</v>
-      </c>
-      <c r="H24" s="4" t="n">
+        <v>6383</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="I24" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="O24" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="P24" s="4" t="n">
-        <v>57.6</v>
+      <c r="N24" s="6" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>67.8</v>
       </c>
       <c r="Q24" s="6" t="n">
-        <v>23.8</v>
+        <v>17.1</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>37.8</v>
+        <v>44.4</v>
       </c>
       <c r="S24" s="6" t="n">
         <v>0</v>
@@ -2948,55 +2977,55 @@
         <v>114</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>768</v>
+        <v>895</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>730</v>
+      <c r="D25" s="6" t="n">
+        <v>935</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>5903</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" s="4" t="s">
+        <v>6283</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="O25" s="4" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="P25" s="4" t="n">
-        <v>55.9</v>
+      <c r="M25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>67.8</v>
       </c>
       <c r="Q25" s="6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>26.7</v>
+        <v>33.3</v>
       </c>
       <c r="S25" s="6" t="n">
         <v>0</v>
@@ -3022,58 +3051,58 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5769</v>
+        <v>6135</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I26" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="Q26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N26" s="4" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="O26" s="4" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="P26" s="4" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="Q26" s="6" t="n">
-        <v>18.1</v>
-      </c>
       <c r="R26" s="6" t="n">
-        <v>26.7</v>
+        <v>28.9</v>
       </c>
       <c r="S26" s="6" t="n">
         <v>0</v>
@@ -3099,58 +3128,58 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>695</v>
+        <v>791</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>658</v>
+        <v>781</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5690</v>
+        <v>5978</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="N27" s="4" t="n">
-        <v>47.4</v>
+        <v>40.6</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>69.2</v>
+        <v>62</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>55.9</v>
+        <v>57.6</v>
       </c>
       <c r="Q27" s="6" t="n">
-        <v>15.2</v>
+        <v>23.8</v>
       </c>
       <c r="R27" s="6" t="n">
-        <v>31.1</v>
+        <v>37.8</v>
       </c>
       <c r="S27" s="6" t="n">
         <v>0</v>
@@ -3176,58 +3205,58 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>643</v>
+        <v>768</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>5525</v>
+        <v>5903</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="N28" s="4" t="n">
-        <v>52.7</v>
+        <v>49.4</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>65.6</v>
+        <v>68.3</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>54.2</v>
+        <v>55.9</v>
       </c>
       <c r="Q28" s="6" t="n">
-        <v>16.2</v>
+        <v>19</v>
       </c>
       <c r="R28" s="6" t="n">
-        <v>31.1</v>
+        <v>26.7</v>
       </c>
       <c r="S28" s="6" t="n">
         <v>0</v>
@@ -3253,58 +3282,58 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>595</v>
+        <v>741</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>618</v>
+        <v>730</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>5379</v>
+        <v>5769</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="N29" s="4" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>58.8</v>
+        <v>62.4</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>61</v>
+        <v>52.5</v>
       </c>
       <c r="Q29" s="6" t="n">
-        <v>17.1</v>
+        <v>18.1</v>
       </c>
       <c r="R29" s="6" t="n">
-        <v>15.6</v>
+        <v>26.7</v>
       </c>
       <c r="S29" s="6" t="n">
         <v>0</v>
@@ -3330,64 +3359,64 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>538</v>
+        <v>695</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5251</v>
+        <v>5690</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="N30" s="4" t="n">
-        <v>43.5</v>
+        <v>47.4</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>55.7</v>
+        <v>69.2</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>59.3</v>
+        <v>55.9</v>
       </c>
       <c r="Q30" s="6" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>33.3</v>
+        <v>31.1</v>
       </c>
       <c r="S30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="4" t="n">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="U30" s="4" t="n">
         <v>221</v>
@@ -3410,31 +3439,31 @@
         <v>137</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>519</v>
+        <v>643</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>530</v>
+        <v>643</v>
       </c>
       <c r="E31" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>332</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>5525</v>
+      </c>
+      <c r="H31" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F31" s="6" t="n">
-        <v>279</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>5128</v>
-      </c>
-      <c r="H31" s="4" t="n">
-        <v>7</v>
-      </c>
       <c r="I31" s="4" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>138</v>
@@ -3443,33 +3472,33 @@
         <v>139</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>40</v>
+        <v>52.7</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>61.1</v>
+        <v>65.6</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>61</v>
+        <v>54.2</v>
       </c>
       <c r="Q31" s="6" t="n">
-        <v>13.3</v>
+        <v>16.2</v>
       </c>
       <c r="R31" s="6" t="n">
-        <v>17.8</v>
+        <v>31.1</v>
       </c>
       <c r="S31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T31" s="5" t="n">
-        <v>1419</v>
-      </c>
-      <c r="U31" s="5" t="n">
+      <c r="T31" s="4" t="n">
+        <v>1434</v>
+      </c>
+      <c r="U31" s="4" t="n">
         <v>221</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="4" t="n">
         <v>59</v>
       </c>
       <c r="W31" s="4" t="n">
@@ -3484,64 +3513,64 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>498</v>
+        <v>618</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>4952</v>
+        <v>5379</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>60.2</v>
+        <v>58.8</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>66.1</v>
+        <v>61</v>
       </c>
       <c r="Q32" s="6" t="n">
-        <v>21</v>
+        <v>17.1</v>
       </c>
       <c r="R32" s="6" t="n">
-        <v>26.7</v>
+        <v>15.6</v>
       </c>
       <c r="S32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="4" t="n">
-        <v>1419</v>
+        <v>1434</v>
       </c>
       <c r="U32" s="4" t="n">
         <v>221</v>
@@ -3561,64 +3590,64 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="C33" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>587</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>288</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>5251</v>
+      </c>
+      <c r="H33" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>392</v>
-      </c>
-      <c r="E33" s="6" t="n">
+      <c r="I33" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="F33" s="6" t="n">
-        <v>262</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>4952</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>22</v>
-      </c>
       <c r="J33" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>51.5</v>
+        <v>43.5</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>57</v>
+        <v>55.7</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>62.7</v>
+        <v>59.3</v>
       </c>
       <c r="Q33" s="6" t="n">
         <v>16.2</v>
       </c>
       <c r="R33" s="6" t="n">
-        <v>24.4</v>
+        <v>33.3</v>
       </c>
       <c r="S33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="4" t="n">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="U33" s="4" t="n">
         <v>221</v>
@@ -3638,73 +3667,73 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>386</v>
+        <v>530</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4867</v>
+        <v>5128</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>7</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>58.8</v>
+        <v>61.1</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>67.8</v>
+        <v>61</v>
       </c>
       <c r="Q34" s="6" t="n">
-        <v>17.9</v>
+        <v>13.3</v>
       </c>
       <c r="R34" s="6" t="n">
-        <v>24.4</v>
+        <v>17.8</v>
       </c>
       <c r="S34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T34" s="4" t="n">
+      <c r="T34" s="5" t="n">
         <v>1419</v>
       </c>
-      <c r="U34" s="4" t="n">
+      <c r="U34" s="5" t="n">
         <v>221</v>
       </c>
-      <c r="V34" s="4" t="n">
+      <c r="V34" s="5" t="n">
         <v>59</v>
       </c>
       <c r="W34" s="4" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="X34" s="4" t="n">
         <v>45</v>
@@ -3715,58 +3744,58 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="C35" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>498</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>4952</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>292</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" s="6" t="n">
-        <v>239</v>
-      </c>
-      <c r="G35" s="6" t="n">
-        <v>4774</v>
-      </c>
-      <c r="H35" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="I35" s="4" t="n">
-        <v>18</v>
-      </c>
       <c r="J35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>54</v>
+        <v>49.9</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>58.8</v>
+        <v>60.2</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>57.6</v>
+        <v>66.1</v>
       </c>
       <c r="Q35" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R35" s="6" t="n">
-        <v>28.9</v>
+        <v>26.7</v>
       </c>
       <c r="S35" s="6" t="n">
         <v>0</v>
@@ -3781,7 +3810,7 @@
         <v>59</v>
       </c>
       <c r="W35" s="4" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="X35" s="4" t="n">
         <v>45</v>
@@ -3792,58 +3821,58 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>395</v>
+        <v>493</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>4667</v>
+        <v>4952</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J36" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>52.3</v>
+        <v>51.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>59.3</v>
+        <v>62.7</v>
       </c>
       <c r="Q36" s="6" t="n">
-        <v>21.1</v>
+        <v>16.2</v>
       </c>
       <c r="R36" s="6" t="n">
-        <v>20</v>
+        <v>24.4</v>
       </c>
       <c r="S36" s="6" t="n">
         <v>0</v>
@@ -3858,7 +3887,7 @@
         <v>59</v>
       </c>
       <c r="W36" s="4" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="X36" s="4" t="n">
         <v>45</v>
@@ -3869,28 +3898,28 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>4469</v>
+        <v>4867</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>5</v>
@@ -3899,28 +3928,28 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>50.4</v>
+        <v>55</v>
       </c>
       <c r="O37" s="4" t="n">
         <v>58.8</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>62.7</v>
+        <v>67.8</v>
       </c>
       <c r="Q37" s="6" t="n">
-        <v>14.7</v>
+        <v>17.9</v>
       </c>
       <c r="R37" s="6" t="n">
-        <v>28.9</v>
+        <v>24.4</v>
       </c>
       <c r="S37" s="6" t="n">
         <v>0</v>
@@ -3946,55 +3975,55 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4388</v>
+        <v>4774</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>48.4</v>
+        <v>54</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>67.8</v>
+        <v>57.6</v>
       </c>
       <c r="Q38" s="6" t="n">
-        <v>13.7</v>
+        <v>20</v>
       </c>
       <c r="R38" s="6" t="n">
         <v>28.9</v>
@@ -4026,31 +4055,31 @@
         <v>164</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>8</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>4330</v>
+        <v>4667</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>165</v>
@@ -4059,22 +4088,22 @@
         <v>166</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>53.8</v>
+        <v>52.3</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>64.3</v>
+        <v>62</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>66.1</v>
+        <v>59.3</v>
       </c>
       <c r="Q39" s="6" t="n">
-        <v>3.2</v>
+        <v>21.1</v>
       </c>
       <c r="R39" s="6" t="n">
-        <v>22.2</v>
+        <v>20</v>
       </c>
       <c r="S39" s="6" t="n">
         <v>0</v>
@@ -4083,7 +4112,7 @@
         <v>1419</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>59</v>
@@ -4100,58 +4129,58 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="E40" s="6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>4232</v>
+        <v>4469</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>54.7</v>
+        <v>50.4</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>59.7</v>
+        <v>58.8</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>62.7</v>
       </c>
       <c r="Q40" s="6" t="n">
-        <v>5.3</v>
+        <v>14.7</v>
       </c>
       <c r="R40" s="6" t="n">
-        <v>20</v>
+        <v>28.9</v>
       </c>
       <c r="S40" s="6" t="n">
         <v>0</v>
@@ -4159,8 +4188,8 @@
       <c r="T40" s="4" t="n">
         <v>1419</v>
       </c>
-      <c r="U40" s="5" t="n">
-        <v>217</v>
+      <c r="U40" s="4" t="n">
+        <v>221</v>
       </c>
       <c r="V40" s="4" t="n">
         <v>59</v>
@@ -4180,31 +4209,31 @@
         <v>171</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>4075</v>
+        <v>4388</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>4</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>172</v>
@@ -4216,19 +4245,19 @@
         <v>174</v>
       </c>
       <c r="N41" s="4" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="O41" s="4" t="n">
         <v>58.4</v>
       </c>
-      <c r="O41" s="4" t="n">
-        <v>62.7</v>
-      </c>
       <c r="P41" s="4" t="n">
-        <v>62.7</v>
+        <v>67.8</v>
       </c>
       <c r="Q41" s="6" t="n">
-        <v>8.4</v>
+        <v>13.7</v>
       </c>
       <c r="R41" s="6" t="n">
-        <v>24.4</v>
+        <v>28.9</v>
       </c>
       <c r="S41" s="6" t="n">
         <v>0</v>
@@ -4237,7 +4266,7 @@
         <v>1419</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="V41" s="4" t="n">
         <v>59</v>
@@ -4257,25 +4286,25 @@
         <v>175</v>
       </c>
       <c r="B42" s="6" t="n">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="C42" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>4330</v>
+      </c>
+      <c r="H42" s="4" t="n">
         <v>6</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>417</v>
-      </c>
-      <c r="E42" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F42" s="6" t="n">
-        <v>142</v>
-      </c>
-      <c r="G42" s="6" t="n">
-        <v>3871</v>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>11</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>5</v>
@@ -4290,22 +4319,22 @@
         <v>177</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>60.4</v>
+        <v>53.8</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>57.1</v>
+        <v>64.3</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>62.7</v>
+        <v>66.1</v>
       </c>
       <c r="Q42" s="6" t="n">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="R42" s="6" t="n">
-        <v>26.7</v>
+        <v>22.2</v>
       </c>
       <c r="S42" s="6" t="n">
         <v>0</v>
@@ -4334,31 +4363,31 @@
         <v>178</v>
       </c>
       <c r="B43" s="6" t="n">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>495</v>
+        <v>267</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>3695</v>
+        <v>4232</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>179</v>
@@ -4367,22 +4396,22 @@
         <v>180</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>58.5</v>
+        <v>54.7</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>56.2</v>
+        <v>59.7</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>62.7</v>
       </c>
       <c r="Q43" s="6" t="n">
-        <v>18.9</v>
+        <v>5.3</v>
       </c>
       <c r="R43" s="6" t="n">
-        <v>28.9</v>
+        <v>20</v>
       </c>
       <c r="S43" s="6" t="n">
         <v>0</v>
@@ -4390,7 +4419,7 @@
       <c r="T43" s="4" t="n">
         <v>1419</v>
       </c>
-      <c r="U43" s="4" t="n">
+      <c r="U43" s="5" t="n">
         <v>217</v>
       </c>
       <c r="V43" s="4" t="n">
@@ -4408,58 +4437,58 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B44" s="6" t="n">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>513</v>
+        <v>342</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>3502</v>
+        <v>4075</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>4</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>51.4</v>
+        <v>58.4</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>52.1</v>
+        <v>62.7</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>62.7</v>
       </c>
       <c r="Q44" s="6" t="n">
-        <v>21.1</v>
+        <v>8.4</v>
       </c>
       <c r="R44" s="6" t="n">
-        <v>46.7</v>
+        <v>24.4</v>
       </c>
       <c r="S44" s="6" t="n">
         <v>0</v>
@@ -4485,55 +4514,55 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B45" s="6" t="n">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3460</v>
+        <v>3871</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>11</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>46.4</v>
+        <v>60.4</v>
       </c>
       <c r="O45" s="4" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="P45" s="4" t="n">
         <v>62.7</v>
       </c>
-      <c r="P45" s="4" t="n">
-        <v>64.4</v>
-      </c>
       <c r="Q45" s="6" t="n">
-        <v>11.6</v>
+        <v>6.3</v>
       </c>
       <c r="R45" s="6" t="n">
         <v>26.7</v>
@@ -4562,58 +4591,58 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B46" s="6" t="n">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>378</v>
+        <v>495</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>3385</v>
+        <v>3695</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>55</v>
+        <v>58.5</v>
       </c>
       <c r="O46" s="4" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="P46" s="4" t="n">
         <v>62.7</v>
       </c>
-      <c r="P46" s="4" t="n">
-        <v>61</v>
-      </c>
       <c r="Q46" s="6" t="n">
-        <v>12.6</v>
+        <v>18.9</v>
       </c>
       <c r="R46" s="6" t="n">
-        <v>37.8</v>
+        <v>28.9</v>
       </c>
       <c r="S46" s="6" t="n">
         <v>0</v>
@@ -4639,58 +4668,58 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B47" s="6" t="n">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>3310</v>
+        <v>3502</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>58.8</v>
+        <v>51.4</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>63.1</v>
+        <v>52.1</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>62.7</v>
       </c>
       <c r="Q47" s="6" t="n">
-        <v>17.9</v>
+        <v>21.1</v>
       </c>
       <c r="R47" s="6" t="n">
-        <v>31.1</v>
+        <v>46.7</v>
       </c>
       <c r="S47" s="6" t="n">
         <v>0</v>
@@ -4719,28 +4748,28 @@
         <v>195</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F48" s="6" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>3212</v>
+        <v>3460</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J48" s="4" t="n">
         <v>1</v>
@@ -4755,60 +4784,72 @@
         <v>198</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>64.2</v>
+        <v>46.4</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>63.6</v>
+        <v>62.7</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>61.8</v>
+        <v>64.4</v>
       </c>
       <c r="Q48" s="6" t="n">
-        <v>15.8</v>
+        <v>11.6</v>
       </c>
       <c r="R48" s="6" t="n">
-        <v>31.1</v>
+        <v>26.7</v>
       </c>
       <c r="S48" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
+      <c r="T48" s="4" t="n">
+        <v>1419</v>
+      </c>
+      <c r="U48" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="V48" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="W48" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="X48" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B49" s="6" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>3061</v>
+        <v>3385</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>200</v>
@@ -4817,122 +4858,152 @@
         <v>201</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>61.9</v>
+        <v>55</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>57.1</v>
+        <v>62.7</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>69.1</v>
+        <v>61</v>
       </c>
       <c r="Q49" s="6" t="n">
-        <v>14.7</v>
+        <v>12.6</v>
       </c>
       <c r="R49" s="6" t="n">
-        <v>22.2</v>
+        <v>37.8</v>
       </c>
       <c r="S49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
+      <c r="T49" s="4" t="n">
+        <v>1419</v>
+      </c>
+      <c r="U49" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="V49" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="W49" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="X49" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y49" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="6" t="n">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>2995</v>
+        <v>3310</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="N50" s="4" t="n">
-        <v>55.4</v>
+        <v>58.8</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>55.3</v>
+        <v>63.1</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
+        <v>62.7</v>
+      </c>
+      <c r="Q50" s="6" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="R50" s="6" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="S50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="4" t="n">
+        <v>1419</v>
+      </c>
+      <c r="U50" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="V50" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="W50" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="X50" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y50" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B51" s="6" t="n">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>2950</v>
+        <v>3212</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>3</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>207</v>
@@ -4941,20 +5012,26 @@
         <v>208</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="N51" s="4" t="n">
-        <v>55.5</v>
+        <v>64.2</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>55.3</v>
+        <v>63.6</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>69.1</v>
-      </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
+        <v>61.8</v>
+      </c>
+      <c r="Q51" s="6" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="R51" s="6" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="S51" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
@@ -4964,56 +5041,62 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="6" t="n">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>289</v>
+        <v>407</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F52" s="6" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>2868</v>
+        <v>3061</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="N52" s="4" t="n">
-        <v>54.5</v>
+        <v>61.9</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>55.3</v>
+        <v>57.1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
+        <v>69.1</v>
+      </c>
+      <c r="Q52" s="6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="R52" s="6" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="S52" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -5026,31 +5109,31 @@
         <v>213</v>
       </c>
       <c r="B53" s="6" t="n">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F53" s="6" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>2836</v>
+        <v>2995</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>214</v>
@@ -5059,16 +5142,16 @@
         <v>215</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="N53" s="4" t="n">
-        <v>60.5</v>
+        <v>55.4</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>62.7</v>
+        <v>55.3</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>69.1</v>
+        <v>63.6</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
@@ -5082,52 +5165,52 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="6" t="n">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F54" s="6" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>2751</v>
+        <v>2950</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>218</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>61.8</v>
+        <v>55.5</v>
       </c>
       <c r="O54" s="4" t="n">
         <v>55.3</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>65.5</v>
+        <v>69.1</v>
       </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -5141,52 +5224,52 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" s="6" t="n">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>2734</v>
+        <v>2868</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>61.32</v>
+        <v>54.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>50.23</v>
+        <v>55.3</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>69.09</v>
+        <v>65.5</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
@@ -5200,52 +5283,52 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B56" s="6" t="n">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>2664</v>
+        <v>2836</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I56" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J56" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="K56" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>62.62</v>
+        <v>60.5</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>56.87</v>
+        <v>62.7</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>69.09</v>
+        <v>69.1</v>
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -5259,52 +5342,52 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B57" s="6" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>2552</v>
+        <v>2751</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>56.07</v>
+        <v>61.8</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>53.55</v>
+        <v>55.3</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>70.91</v>
+        <v>65.5</v>
       </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
@@ -5318,52 +5401,52 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B58" s="6" t="n">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>2479</v>
+        <v>2734</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>49.46</v>
+        <v>61.32</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>50.24</v>
+        <v>50.23</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>74.55</v>
+        <v>69.09</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -5377,52 +5460,52 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B59" s="6" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="E59" s="6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F59" s="6" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G59" s="6" t="n">
-        <v>2415</v>
+        <v>2664</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>45.22</v>
+        <v>62.62</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>54.03</v>
+        <v>56.87</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>70.91</v>
+        <v>69.09</v>
       </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
@@ -5436,52 +5519,52 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B60" s="6" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F60" s="6" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>2361</v>
+        <v>2552</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J60" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="K60" s="4" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>53.06</v>
+        <v>56.07</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>57.82</v>
+        <v>53.55</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>69.09</v>
+        <v>70.91</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
@@ -5495,28 +5578,28 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B61" s="6" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E61" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="6" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>2337</v>
+        <v>2479</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" s="4" t="n">
         <v>0</v>
@@ -5525,22 +5608,22 @@
         <v>0</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N61" s="4" t="n">
-        <v>56.65</v>
+        <v>49.46</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>54.03</v>
+        <v>50.24</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>67.27</v>
+        <v>74.55</v>
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
@@ -5554,52 +5637,52 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B62" s="6" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="E62" s="6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F62" s="6" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>2221</v>
+        <v>2415</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N62" s="4" t="n">
-        <v>57.8</v>
+        <v>45.22</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>56.87</v>
+        <v>54.03</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>63.64</v>
+        <v>70.91</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -5613,52 +5696,52 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B63" s="6" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E63" s="6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F63" s="6" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>2155</v>
-      </c>
-      <c r="H63" s="5" t="n">
-        <v>2</v>
+        <v>2361</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N63" s="4" t="n">
-        <v>56.94</v>
+        <v>53.06</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>55.92</v>
+        <v>57.82</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>67.27</v>
+        <v>69.09</v>
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
@@ -5672,52 +5755,52 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B64" s="6" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="E64" s="6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>2029</v>
-      </c>
-      <c r="H64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>48</v>
+        <v>2337</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>56.22</v>
+        <v>56.65</v>
       </c>
       <c r="O64" s="4" t="n">
         <v>54.03</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>70.91</v>
+        <v>67.27</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
@@ -5731,52 +5814,52 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B65" s="6" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C65" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D65" s="5" t="n">
-        <v>399</v>
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>368</v>
       </c>
       <c r="E65" s="6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F65" s="6" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>1972</v>
-      </c>
-      <c r="H65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>48</v>
+        <v>2221</v>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="N65" s="4" t="n">
-        <v>52.19</v>
+        <v>57.8</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>53.55</v>
+        <v>56.87</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>67.27</v>
+        <v>63.64</v>
       </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
@@ -5790,52 +5873,52 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B66" s="6" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>445</v>
+        <v>360</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F66" s="6" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>1906</v>
-      </c>
-      <c r="H66" s="4" t="n">
+        <v>2155</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>48</v>
+      <c r="K66" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>49.75</v>
+        <v>56.94</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>52.61</v>
+        <v>55.92</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>63.64</v>
+        <v>67.27</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -5849,52 +5932,52 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B67" s="6" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F67" s="6" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>1866</v>
-      </c>
-      <c r="H67" s="4" t="n">
+        <v>2029</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I67" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>48</v>
+      <c r="J67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>53.27</v>
+        <v>56.22</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>57.35</v>
+        <v>54.03</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>52.73</v>
+        <v>70.91</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -5908,52 +5991,52 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B68" s="6" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D68" s="4" t="n">
-        <v>457</v>
+      <c r="D68" s="5" t="n">
+        <v>399</v>
       </c>
       <c r="E68" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F68" s="6" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>1795</v>
-      </c>
-      <c r="H68" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I68" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>253</v>
+        <v>1972</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>57.15</v>
+        <v>52.19</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>58.29</v>
+        <v>53.55</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>70.91</v>
+        <v>67.27</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -5970,34 +6053,46 @@
         <v>254</v>
       </c>
       <c r="B69" s="6" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="E69" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F69" s="6" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>1733</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+        <v>1906</v>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="N69" s="4" t="n">
-        <v>62.76</v>
+        <v>49.75</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>60.19</v>
+        <v>52.61</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>63.64</v>
@@ -6014,40 +6109,52 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B70" s="6" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D70" s="5" t="n">
-        <v>421</v>
+      <c r="D70" s="4" t="n">
+        <v>428</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F70" s="6" t="n">
         <v>56</v>
       </c>
       <c r="G70" s="6" t="n">
-        <v>1647</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+        <v>1866</v>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="N70" s="4" t="n">
-        <v>61.68</v>
+        <v>53.27</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>62.56</v>
+        <v>57.35</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>65.45</v>
+        <v>52.73</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -6061,40 +6168,52 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B71" s="6" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C71" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D71" s="5" t="n">
-        <v>398</v>
+      <c r="D71" s="4" t="n">
+        <v>457</v>
       </c>
       <c r="E71" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F71" s="6" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G71" s="6" t="n">
-        <v>1594</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
+        <v>1795</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="N71" s="4" t="n">
-        <v>59.38</v>
-      </c>
-      <c r="O71" s="5" t="n">
-        <v>56.87</v>
+        <v>57.15</v>
+      </c>
+      <c r="O71" s="4" t="n">
+        <v>58.29</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>60</v>
+        <v>70.91</v>
       </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
@@ -6108,25 +6227,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B72" s="6" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D72" s="5" t="n">
-        <v>359</v>
+      <c r="D72" s="4" t="n">
+        <v>401</v>
       </c>
       <c r="E72" s="6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F72" s="6" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>1532</v>
+        <v>1733</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -6135,13 +6254,13 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="4" t="n">
-        <v>54.21</v>
+        <v>62.76</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>60.66</v>
+        <v>60.19</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>61.82</v>
+        <v>63.64</v>
       </c>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -6155,25 +6274,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B73" s="6" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C73" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="E73" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F73" s="6" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>1490</v>
+        <v>1647</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -6182,13 +6301,13 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="4" t="n">
-        <v>50.32</v>
+        <v>61.68</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>62.09</v>
+        <v>62.56</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>58.18</v>
+        <v>65.45</v>
       </c>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
@@ -6202,25 +6321,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B74" s="6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F74" s="6" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>1434</v>
+        <v>1594</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -6229,13 +6348,13 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="4" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="O74" s="4" t="n">
-        <v>60.19</v>
+        <v>59.38</v>
+      </c>
+      <c r="O74" s="5" t="n">
+        <v>56.87</v>
       </c>
       <c r="P74" s="4" t="n">
-        <v>54.55</v>
+        <v>60</v>
       </c>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
@@ -6249,10 +6368,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B75" s="6" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>5</v>
@@ -6261,13 +6380,13 @@
         <v>359</v>
       </c>
       <c r="E75" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F75" s="6" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G75" s="6" t="n">
-        <v>1368</v>
+        <v>1532</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -6276,13 +6395,13 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="4" t="n">
-        <v>58.81</v>
+        <v>54.21</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>60.19</v>
+        <v>60.66</v>
       </c>
       <c r="P75" s="4" t="n">
-        <v>60</v>
+        <v>61.82</v>
       </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
@@ -6296,25 +6415,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B76" s="6" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F76" s="6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G76" s="6" t="n">
-        <v>1277</v>
+        <v>1490</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -6323,10 +6442,10 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="4" t="n">
-        <v>56.22</v>
+        <v>50.32</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>56.4</v>
+        <v>62.09</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>58.18</v>
@@ -6343,25 +6462,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B77" s="6" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F77" s="6" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G77" s="6" t="n">
-        <v>1230</v>
+        <v>1434</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -6369,9 +6488,15 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
+      <c r="N77" s="4" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="O77" s="4" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="P77" s="4" t="n">
+        <v>54.55</v>
+      </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -6384,25 +6509,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B78" s="6" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E78" s="6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F78" s="6" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>1187</v>
+        <v>1368</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -6410,9 +6535,15 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
+      <c r="N78" s="4" t="n">
+        <v>58.81</v>
+      </c>
+      <c r="O78" s="4" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="P78" s="4" t="n">
+        <v>60</v>
+      </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -6425,25 +6556,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B79" s="6" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="E79" s="6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F79" s="6" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G79" s="6" t="n">
-        <v>1148</v>
+        <v>1277</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -6451,9 +6582,15 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
+      <c r="N79" s="4" t="n">
+        <v>56.22</v>
+      </c>
+      <c r="O79" s="4" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="P79" s="4" t="n">
+        <v>58.18</v>
+      </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -6466,25 +6603,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B80" s="6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="E80" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F80" s="6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>1085</v>
+        <v>1230</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -6507,25 +6644,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B81" s="6" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E81" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F81" s="6" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>1056</v>
+        <v>1187</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -6548,25 +6685,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B82" s="6" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" s="6" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G82" s="6" t="n">
-        <v>1035</v>
+        <v>1148</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -6589,25 +6726,25 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B83" s="6" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="E83" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F83" s="6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>1017</v>
+        <v>1085</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -6630,25 +6767,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B84" s="6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="E84" s="6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F84" s="6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G84" s="6" t="n">
-        <v>976</v>
+        <v>1056</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -6671,25 +6808,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B85" s="6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="E85" s="6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F85" s="6" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>927</v>
+        <v>1035</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -6712,23 +6849,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B86" s="6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="F86" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>40</v>
+      </c>
       <c r="G86" s="6" t="n">
-        <v>884</v>
+        <v>1017</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
@@ -6751,23 +6890,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B87" s="6" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C87" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="E87" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="F87" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="G87" s="6" t="n">
-        <v>881</v>
+        <v>976</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
@@ -6790,23 +6931,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B88" s="6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C88" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E88" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>33</v>
+      </c>
       <c r="G88" s="6" t="n">
-        <v>826</v>
+        <v>927</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
@@ -6829,23 +6972,23 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B89" s="6" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C89" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E89" s="6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6" t="n">
-        <v>779</v>
+        <v>884</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
@@ -6868,23 +7011,23 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B90" s="6" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C90" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E90" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6" t="n">
-        <v>771</v>
+        <v>881</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -6907,23 +7050,23 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B91" s="6" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C91" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6" t="n">
-        <v>703</v>
+        <v>826</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -6946,23 +7089,23 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B92" s="6" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C92" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="E92" s="6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6" t="n">
-        <v>599</v>
+        <v>779</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -6985,23 +7128,23 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B93" s="6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C93" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>562</v>
+        <v>311</v>
       </c>
       <c r="E93" s="6" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6" t="n">
-        <v>368</v>
+        <v>771</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
@@ -7024,23 +7167,23 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B94" s="6" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>612</v>
+        <v>351</v>
       </c>
       <c r="E94" s="6" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6" t="n">
-        <v>308</v>
+        <v>703</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -7063,23 +7206,23 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B95" s="6" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>622</v>
+        <v>377</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="n">
-        <v>262</v>
+        <v>599</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
@@ -7102,23 +7245,23 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B96" s="6" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="E96" s="6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="n">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -7141,23 +7284,23 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B97" s="6" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>513</v>
+        <v>612</v>
       </c>
       <c r="E97" s="6" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="n">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -7180,23 +7323,23 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B98" s="6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>501</v>
+        <v>622</v>
       </c>
       <c r="E98" s="6" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="n">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
@@ -7219,23 +7362,23 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B99" s="6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>306</v>
+        <v>592</v>
       </c>
       <c r="E99" s="6" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="n">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
@@ -7258,23 +7401,23 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B100" s="6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>157</v>
+        <v>513</v>
       </c>
       <c r="E100" s="6" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6" t="n">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
@@ -7297,22 +7440,24 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B101" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D101" s="6" t="n">
-        <v>182</v>
+      <c r="D101" s="5" t="n">
+        <v>501</v>
       </c>
       <c r="E101" s="6" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="G101" s="6" t="n">
+        <v>211</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -7334,22 +7479,24 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B102" s="6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D102" s="6" t="n">
-        <v>145</v>
+      <c r="D102" s="5" t="n">
+        <v>306</v>
       </c>
       <c r="E102" s="6" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="G102" s="6" t="n">
+        <v>183</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -7371,22 +7518,24 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B103" s="6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D103" s="6" t="n">
-        <v>60</v>
+      <c r="D103" s="5" t="n">
+        <v>157</v>
       </c>
       <c r="E103" s="6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="n">
+        <v>138</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -7408,19 +7557,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B104" s="6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C104" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D104" s="6" t="n">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="E104" s="6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -7445,19 +7594,19 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B105" s="6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C105" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105" s="6" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E105" s="6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -7482,19 +7631,19 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B106" s="6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C106" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106" s="6" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E106" s="6" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -7519,19 +7668,19 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B107" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="6" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E107" s="6" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -7556,19 +7705,19 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B108" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="6" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E108" s="6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -7593,19 +7742,19 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B109" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E109" s="6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -7630,16 +7779,16 @@
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B110" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="6" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E110" s="6" t="n">
         <v>0</v>
@@ -7667,16 +7816,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B111" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="6" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>0</v>
@@ -7704,16 +7853,16 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B112" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="6" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>0</v>
@@ -7739,9 +7888,117 @@
       <c r="X112" s="6"/>
       <c r="Y112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E114" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B115" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+    </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8643,6 +8900,8 @@
     <row r="1014" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1015" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1016" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1017" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1018" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
